--- a/SchemeIBPME/SchemeIBPME.xlsx
+++ b/SchemeIBPME/SchemeIBPME.xlsx
@@ -586,37 +586,37 @@
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004706203</v>
+        <v>0.005313604</v>
       </c>
       <c r="I2" t="n">
-        <v>0.020467706</v>
+        <v>0.02214118</v>
       </c>
       <c r="J2" t="n">
-        <v>0.009446421</v>
+        <v>0.010179587</v>
       </c>
       <c r="K2" t="n">
-        <v>0.020023598</v>
+        <v>0.02348997</v>
       </c>
       <c r="L2" t="n">
-        <v>0.022222939</v>
+        <v>0.025881396</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007334556</v>
+        <v>0.011238709</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007210307</v>
+        <v>0.021278011</v>
       </c>
       <c r="O2" t="n">
-        <v>4.1504e-05</v>
+        <v>0.023157422</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -652,7 +652,7 @@
         <v>474</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3">
@@ -671,37 +671,37 @@
         <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004851319</v>
+        <v>0.004340855</v>
       </c>
       <c r="I3" t="n">
-        <v>0.021536156</v>
+        <v>0.018000827</v>
       </c>
       <c r="J3" t="n">
-        <v>0.011328851</v>
+        <v>0.009308889000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.025256337</v>
+        <v>0.021444434</v>
       </c>
       <c r="L3" t="n">
-        <v>0.028088602</v>
+        <v>0.020735864</v>
       </c>
       <c r="M3" t="n">
-        <v>0.008773080000000001</v>
+        <v>0.008701153</v>
       </c>
       <c r="N3" t="n">
-        <v>0.008617342</v>
+        <v>0.019181879</v>
       </c>
       <c r="O3" t="n">
-        <v>5.0411e-05</v>
+        <v>0.023190347</v>
       </c>
       <c r="P3" t="n">
         <v>30</v>
@@ -737,7 +737,7 @@
         <v>474</v>
       </c>
       <c r="AA3" t="n">
-        <v>20</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4">
@@ -756,37 +756,37 @@
         <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004974472</v>
+        <v>0.005551648</v>
       </c>
       <c r="I4" t="n">
-        <v>0.019947988</v>
+        <v>0.022230352</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009565087999999999</v>
+        <v>0.009950913</v>
       </c>
       <c r="K4" t="n">
-        <v>0.023417296</v>
+        <v>0.021367123</v>
       </c>
       <c r="L4" t="n">
-        <v>0.024287312</v>
+        <v>0.022556945</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007276559</v>
+        <v>0.009324447</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007010868</v>
+        <v>0.021853225</v>
       </c>
       <c r="O4" t="n">
-        <v>4.3812e-05</v>
+        <v>0.027579811</v>
       </c>
       <c r="P4" t="n">
         <v>30</v>
@@ -822,7 +822,7 @@
         <v>474</v>
       </c>
       <c r="AA4" t="n">
-        <v>28</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5">
@@ -841,37 +841,37 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005548556</v>
+        <v>0.005177142</v>
       </c>
       <c r="I5" t="n">
-        <v>0.020013232</v>
+        <v>0.021386058</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008419183</v>
+        <v>0.009936113999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.020564361</v>
+        <v>0.023774496</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02365448</v>
+        <v>0.027262809</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008118579000000001</v>
+        <v>0.011204319</v>
       </c>
       <c r="N5" t="n">
-        <v>0.008068232</v>
+        <v>0.022294154</v>
       </c>
       <c r="O5" t="n">
-        <v>5.2319e-05</v>
+        <v>0.026646248</v>
       </c>
       <c r="P5" t="n">
         <v>30</v>
@@ -907,7 +907,7 @@
         <v>474</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6">
@@ -926,37 +926,37 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004313522</v>
+        <v>0.004418942</v>
       </c>
       <c r="I6" t="n">
-        <v>0.016784465</v>
+        <v>0.019161173</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009089603</v>
+        <v>0.0089009</v>
       </c>
       <c r="K6" t="n">
-        <v>0.021468282</v>
+        <v>0.021399577</v>
       </c>
       <c r="L6" t="n">
-        <v>0.021049912</v>
+        <v>0.024637473</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00656339</v>
+        <v>0.010778864</v>
       </c>
       <c r="N6" t="n">
-        <v>0.006753355</v>
+        <v>0.021717573</v>
       </c>
       <c r="O6" t="n">
-        <v>4.6703e-05</v>
+        <v>0.024430276</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>
@@ -992,7 +992,7 @@
         <v>474</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7">
@@ -1011,37 +1011,37 @@
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004212013</v>
+        <v>0.004775517</v>
       </c>
       <c r="I7" t="n">
-        <v>0.017396365</v>
+        <v>0.020044254</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009364822</v>
+        <v>0.011174092</v>
       </c>
       <c r="K7" t="n">
-        <v>0.021799557</v>
+        <v>0.026699406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.025090677</v>
+        <v>0.027788381</v>
       </c>
       <c r="M7" t="n">
-        <v>0.007484239</v>
+        <v>0.010695037</v>
       </c>
       <c r="N7" t="n">
-        <v>0.007246586</v>
+        <v>0.022370551</v>
       </c>
       <c r="O7" t="n">
-        <v>5.9058e-05</v>
+        <v>0.024475718</v>
       </c>
       <c r="P7" t="n">
         <v>30</v>
@@ -1077,7 +1077,7 @@
         <v>474</v>
       </c>
       <c r="AA7" t="n">
-        <v>64</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
